--- a/doors-detector/results/house21.xlsx
+++ b/doors-detector/results/house21.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.6821042625340364</v>
+        <v>0.6964728147511002</v>
       </c>
       <c r="F2" t="n">
         <v>5510</v>
       </c>
       <c r="G2" t="n">
-        <v>4215</v>
+        <v>4255</v>
       </c>
       <c r="H2" t="n">
-        <v>1295</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2a</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.3984404714260898</v>
+        <v>0.4301778315753775</v>
       </c>
       <c r="F3" t="n">
         <v>85</v>
       </c>
       <c r="G3" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -550,7 +550,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2b</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.6715344676946866</v>
+        <v>0.6536392719612125</v>
       </c>
       <c r="F4" t="n">
         <v>287</v>
       </c>
       <c r="G4" t="n">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H4" t="n">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5">
@@ -582,7 +582,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2c</t>
+          <t>2a</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7977836102954382</v>
+        <v>0.8091796959941159</v>
       </c>
       <c r="F5" t="n">
         <v>5510</v>
       </c>
       <c r="G5" t="n">
-        <v>4661</v>
+        <v>4693</v>
       </c>
       <c r="H5" t="n">
-        <v>849</v>
+        <v>817</v>
       </c>
     </row>
     <row r="6">
@@ -614,7 +614,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2a</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -623,13 +623,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.6445209066134988</v>
+        <v>0.5890658402630289</v>
       </c>
       <c r="F6" t="n">
         <v>85</v>
       </c>
       <c r="G6" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H6" t="n">
         <v>47</v>
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6722323066504273</v>
+        <v>0.693464192891901</v>
       </c>
       <c r="F7" t="n">
         <v>287</v>
       </c>
       <c r="G7" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H7" t="n">
-        <v>343</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.8007612629957923</v>
+        <v>0.8144581408126303</v>
       </c>
       <c r="F8" t="n">
         <v>5510</v>
       </c>
       <c r="G8" t="n">
-        <v>4677</v>
+        <v>4734</v>
       </c>
       <c r="H8" t="n">
-        <v>833</v>
+        <v>776</v>
       </c>
     </row>
     <row r="9">
@@ -710,7 +710,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2c</t>
+          <t>2b</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.7149022899940194</v>
+        <v>0.7255278480680017</v>
       </c>
       <c r="F9" t="n">
         <v>85</v>
@@ -728,7 +728,7 @@
         <v>71</v>
       </c>
       <c r="H9" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -742,25 +742,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>2b</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E10" t="n">
-        <v>0.7240155807090713</v>
+        <v>0.714004854951812</v>
       </c>
       <c r="F10" t="n">
         <v>287</v>
       </c>
       <c r="G10" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H10" t="n">
-        <v>292</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11">
@@ -774,7 +774,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2a</t>
+          <t>2c</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.8033115295256641</v>
+        <v>0.8256988615533528</v>
       </c>
       <c r="F11" t="n">
         <v>5510</v>
       </c>
       <c r="G11" t="n">
-        <v>4669</v>
+        <v>4762</v>
       </c>
       <c r="H11" t="n">
-        <v>841</v>
+        <v>748</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2b</t>
+          <t>2c</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.8361422091298164</v>
+        <v>0.8233160952704927</v>
       </c>
       <c r="F12" t="n">
         <v>85</v>
       </c>
       <c r="G12" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H12" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.7713924155034871</v>
+        <v>0.782668189456458</v>
       </c>
       <c r="F13" t="n">
         <v>287</v>
       </c>
       <c r="G13" t="n">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="H13" t="n">
-        <v>354</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
